--- a/Listas de precios/minorista/PITONES.xlsx
+++ b/Listas de precios/minorista/PITONES.xlsx
@@ -834,7 +834,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="31" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="H1" s="2" t="n"/>
       <c r="I1" s="2" t="n"/>
@@ -1181,8 +1181,8 @@
   <mergeCells count="4">
     <mergeCell ref="A30:F30"/>
     <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A39:D39"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A39:D39"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/Listas de precios/minorista/PITONES.xlsx
+++ b/Listas de precios/minorista/PITONES.xlsx
@@ -834,7 +834,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="31" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
       <c r="H1" s="2" t="n"/>
       <c r="I1" s="2" t="n"/>
@@ -1181,8 +1181,8 @@
   <mergeCells count="4">
     <mergeCell ref="A30:F30"/>
     <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A1:G1"/>
     <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/Listas de precios/minorista/PITONES.xlsx
+++ b/Listas de precios/minorista/PITONES.xlsx
@@ -834,7 +834,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="31" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="H1" s="2" t="n"/>
       <c r="I1" s="2" t="n"/>
@@ -1181,8 +1181,8 @@
   <mergeCells count="4">
     <mergeCell ref="A30:F30"/>
     <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A39:D39"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A39:D39"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
